--- a/biology/Botanique/Aporosa_fusiformis/Aporosa_fusiformis.xlsx
+++ b/biology/Botanique/Aporosa_fusiformis/Aporosa_fusiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aporosa fusiformis est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre des Aporosa. C'est un arbre.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxinomie et nomenclature
-George Henry Kendrick Thwaites, un botaniste britannique, décrit le premier cette espèce en 1861 et la classe dans le genre Aporosa créé par l'Allemand Carl Ludwig Blume en 1825[4]. Il lui donne l'épithète spécifique fusiformis par évocation de la forme en fuseau des fruits[5].
+          <t>Taxinomie et nomenclature</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Henry Kendrick Thwaites, un botaniste britannique, décrit le premier cette espèce en 1861 et la classe dans le genre Aporosa créé par l'Allemand Carl Ludwig Blume en 1825. Il lui donne l'épithète spécifique fusiformis par évocation de la forme en fuseau des fruits.
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aporosa fusiformis est un arbre d'environ 15 mètres de hauteur.
 Comme toutes les plantes du genre, Aporosa fusiformis est dioïque : les fleurs mâles et les femelles sont portées par des arbres différents. Ce caractère est générique.
